--- a/data/example_data/ten_obs_extra_vars.xlsx
+++ b/data/example_data/ten_obs_extra_vars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinegoode/Desktop/carp-rf/shiny-app/app/data/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638325A9-D424-8449-AF74-71BEE51A335D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E108BBB-F789-5D41-AE40-70844894C9AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{9017F2E8-B766-514A-A1D9-8D28762758B9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{9017F2E8-B766-514A-A1D9-8D28762758B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
   <si>
     <t>Dataset</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Julian_Day</t>
-  </si>
-  <si>
     <t>Temperature</t>
   </si>
   <si>
@@ -99,21 +96,6 @@
     <t>Deflated</t>
   </si>
   <si>
-    <t>Genus</t>
-  </si>
-  <si>
-    <t>Common_Name</t>
-  </si>
-  <si>
-    <t>Family_ACGC</t>
-  </si>
-  <si>
-    <t>Genus_ACGC</t>
-  </si>
-  <si>
-    <t>Common_Name_ACGC</t>
-  </si>
-  <si>
     <t>original</t>
   </si>
   <si>
@@ -132,15 +114,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Aplodinotus</t>
-  </si>
-  <si>
-    <t>Freshwater Drum</t>
-  </si>
-  <si>
-    <t>Sciaenidae</t>
-  </si>
-  <si>
     <t>DNI</t>
   </si>
   <si>
@@ -153,55 +126,28 @@
     <t>IAR</t>
   </si>
   <si>
-    <t>Ctenopharyngodon</t>
-  </si>
-  <si>
-    <t>Grass Carp</t>
-  </si>
-  <si>
-    <t>ACGC</t>
-  </si>
-  <si>
     <t>CON</t>
   </si>
   <si>
     <t>CDR</t>
   </si>
   <si>
-    <t>Notropis</t>
-  </si>
-  <si>
-    <t>River Shiner</t>
-  </si>
-  <si>
-    <t>Cyprinidae</t>
-  </si>
-  <si>
     <t>EDD</t>
   </si>
   <si>
     <t>DSM</t>
   </si>
   <si>
-    <t>Hypophthalmichthys</t>
-  </si>
-  <si>
-    <t>Silver Carp</t>
-  </si>
-  <si>
     <t>Egg_ID</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>Day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -231,9 +177,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,20 +493,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E73F49D-5B7D-2F4D-B6F9-784BB0EB7BA1}">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -572,14 +515,14 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
+      <c r="E1" t="s">
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -626,883 +569,685 @@
       <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>2014</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1">
-        <v>41847</v>
-      </c>
-      <c r="F2">
-        <v>2014</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
       <c r="H2">
-        <v>209</v>
+        <v>24.7</v>
       </c>
       <c r="I2">
-        <v>24.7</v>
+        <v>522</v>
       </c>
       <c r="J2">
-        <v>522</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.42716625</v>
       </c>
       <c r="L2">
+        <v>4.3584913000000003E-2</v>
+      </c>
+      <c r="M2">
+        <v>3.0539479000000001E-2</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>1.42716625</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>4.3584913000000003E-2</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>3.0539479000000001E-2</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1.42716625</v>
-      </c>
-      <c r="Q2">
-        <v>4.3584913000000003E-2</v>
-      </c>
-      <c r="R2">
-        <v>3.0539479000000001E-2</v>
+      <c r="R2" t="s">
+        <v>23</v>
       </c>
       <c r="S2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="T2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="U2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="V2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
       <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1">
-        <v>41866</v>
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>2014</v>
       </c>
       <c r="F3">
-        <v>2014</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H3">
-        <v>227</v>
+        <v>25.3</v>
       </c>
       <c r="I3">
-        <v>25.3</v>
+        <v>440</v>
       </c>
       <c r="J3">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.24384925</v>
       </c>
       <c r="L3">
-        <v>1.24384925</v>
+        <v>2.9098156E-2</v>
       </c>
       <c r="M3">
-        <v>2.9098156E-2</v>
+        <v>2.3393635999999999E-2</v>
       </c>
       <c r="N3">
-        <v>2.3393635999999999E-2</v>
+        <v>0.82096164400000005</v>
       </c>
       <c r="O3">
-        <v>0.82096164400000005</v>
+        <v>1.021152525</v>
       </c>
       <c r="P3">
-        <v>1.021152525</v>
+        <v>9.1988819999999999E-2</v>
       </c>
       <c r="Q3">
-        <v>9.1988819999999999E-2</v>
+        <v>9.0083330000000003E-2</v>
       </c>
       <c r="R3">
-        <v>9.0083330000000003E-2</v>
-      </c>
-      <c r="S3">
         <v>5</v>
       </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
       <c r="T3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="U3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="V3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="1">
-        <v>41811</v>
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>2014</v>
       </c>
       <c r="F4">
-        <v>2014</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H4">
-        <v>172</v>
+        <v>26.3</v>
       </c>
       <c r="I4">
-        <v>26.3</v>
+        <v>473</v>
       </c>
       <c r="J4">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3.766086</v>
       </c>
       <c r="L4">
-        <v>3.766086</v>
+        <v>0.10439124499999999</v>
       </c>
       <c r="M4">
-        <v>0.10439124499999999</v>
+        <v>2.7718763E-2</v>
       </c>
       <c r="N4">
-        <v>2.7718763E-2</v>
+        <v>0.33637276199999999</v>
       </c>
       <c r="O4">
-        <v>0.33637276199999999</v>
+        <v>1.26680875</v>
       </c>
       <c r="P4">
-        <v>1.26680875</v>
+        <v>1.8744714999999999E-2</v>
       </c>
       <c r="Q4">
-        <v>1.8744714999999999E-2</v>
+        <v>1.4796798999999999E-2</v>
       </c>
       <c r="R4">
-        <v>1.4796798999999999E-2</v>
-      </c>
-      <c r="S4">
         <v>4</v>
       </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
       <c r="T4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="U4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="V4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W4" t="s">
-        <v>30</v>
-      </c>
-      <c r="X4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="1">
-        <v>41811</v>
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>2014</v>
       </c>
       <c r="F5">
-        <v>2014</v>
+        <v>6</v>
       </c>
       <c r="G5">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>26.3</v>
+      </c>
+      <c r="I5">
+        <v>473</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>2.8397695000000001</v>
+      </c>
+      <c r="L5">
+        <v>6.8534599000000002E-2</v>
+      </c>
+      <c r="M5">
+        <v>2.413386E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.56823916500000005</v>
+      </c>
+      <c r="O5">
+        <v>1.6136682499999999</v>
+      </c>
+      <c r="P5">
+        <v>0.25849926699999998</v>
+      </c>
+      <c r="Q5">
+        <v>0.16019356300000001</v>
+      </c>
+      <c r="R5">
         <v>6</v>
       </c>
-      <c r="H5">
-        <v>172</v>
-      </c>
-      <c r="I5">
-        <v>26.3</v>
-      </c>
-      <c r="J5">
-        <v>473</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>2.8397695000000001</v>
-      </c>
-      <c r="M5">
-        <v>6.8534599000000002E-2</v>
-      </c>
-      <c r="N5">
-        <v>2.413386E-2</v>
-      </c>
-      <c r="O5">
-        <v>0.56823916500000005</v>
-      </c>
-      <c r="P5">
-        <v>1.6136682499999999</v>
-      </c>
-      <c r="Q5">
-        <v>0.25849926699999998</v>
-      </c>
-      <c r="R5">
-        <v>0.16019356300000001</v>
-      </c>
-      <c r="S5">
-        <v>6</v>
+      <c r="S5" t="s">
+        <v>27</v>
       </c>
       <c r="T5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="U5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="V5" t="s">
-        <v>31</v>
-      </c>
-      <c r="W5" t="s">
-        <v>30</v>
-      </c>
-      <c r="X5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1">
-        <v>41875</v>
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>2014</v>
       </c>
       <c r="F6">
-        <v>2014</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H6">
-        <v>236</v>
+        <v>25.5</v>
       </c>
       <c r="I6">
-        <v>25.5</v>
+        <v>498</v>
       </c>
       <c r="J6">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.4185537500000001</v>
       </c>
       <c r="L6">
-        <v>1.4185537500000001</v>
+        <v>2.6286121999999999E-2</v>
       </c>
       <c r="M6">
-        <v>2.6286121999999999E-2</v>
+        <v>1.8530226E-2</v>
       </c>
       <c r="N6">
-        <v>1.8530226E-2</v>
+        <v>0.77997315899999997</v>
       </c>
       <c r="O6">
-        <v>0.77997315899999997</v>
+        <v>1.1064338499999999</v>
       </c>
       <c r="P6">
-        <v>1.1064338499999999</v>
+        <v>0.14031097000000001</v>
       </c>
       <c r="Q6">
-        <v>0.14031097000000001</v>
+        <v>0.1268137</v>
       </c>
       <c r="R6">
-        <v>0.1268137</v>
-      </c>
-      <c r="S6">
         <v>6</v>
       </c>
+      <c r="S6" t="s">
+        <v>27</v>
+      </c>
       <c r="T6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="U6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="V6" t="s">
-        <v>31</v>
-      </c>
-      <c r="W6" t="s">
-        <v>31</v>
-      </c>
-      <c r="X6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="1">
-        <v>42226</v>
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>2015</v>
       </c>
       <c r="F7">
-        <v>2015</v>
+        <v>8</v>
       </c>
       <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>26.3</v>
+      </c>
+      <c r="I7">
+        <v>514</v>
+      </c>
+      <c r="J7">
+        <v>2.048397</v>
+      </c>
+      <c r="K7">
+        <v>2.0806935000000002</v>
+      </c>
+      <c r="L7">
+        <v>0.117446564</v>
+      </c>
+      <c r="M7">
+        <v>5.6445874E-2</v>
+      </c>
+      <c r="N7">
+        <v>0.46426124299999999</v>
+      </c>
+      <c r="O7">
+        <v>0.96598534999999996</v>
+      </c>
+      <c r="P7">
+        <v>5.5192686999999997E-2</v>
+      </c>
+      <c r="Q7">
+        <v>5.7136153000000002E-2</v>
+      </c>
+      <c r="R7">
         <v>8</v>
       </c>
-      <c r="H7">
-        <v>222</v>
-      </c>
-      <c r="I7">
-        <v>26.3</v>
-      </c>
-      <c r="J7">
-        <v>514</v>
-      </c>
-      <c r="K7">
-        <v>2.048397</v>
-      </c>
-      <c r="L7">
-        <v>2.0806935000000002</v>
-      </c>
-      <c r="M7">
-        <v>0.117446564</v>
-      </c>
-      <c r="N7">
-        <v>5.6445874E-2</v>
-      </c>
-      <c r="O7">
-        <v>0.46426124299999999</v>
-      </c>
-      <c r="P7">
-        <v>0.96598534999999996</v>
-      </c>
-      <c r="Q7">
-        <v>5.5192686999999997E-2</v>
-      </c>
-      <c r="R7">
-        <v>5.7136153000000002E-2</v>
-      </c>
-      <c r="S7">
-        <v>8</v>
+      <c r="S7" t="s">
+        <v>27</v>
       </c>
       <c r="T7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="U7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="V7" t="s">
-        <v>30</v>
-      </c>
-      <c r="W7" t="s">
-        <v>30</v>
-      </c>
-      <c r="X7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="1">
-        <v>42164</v>
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>2015</v>
       </c>
       <c r="F8">
-        <v>2015</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H8">
-        <v>161</v>
+        <v>23.1</v>
       </c>
       <c r="I8">
-        <v>23.1</v>
+        <v>654</v>
       </c>
       <c r="J8">
-        <v>654</v>
+        <v>3.146455</v>
       </c>
       <c r="K8">
-        <v>3.146455</v>
+        <v>2.9932829999999999</v>
       </c>
       <c r="L8">
-        <v>2.9932829999999999</v>
+        <v>0.231379481</v>
       </c>
       <c r="M8">
-        <v>0.231379481</v>
+        <v>7.7299567E-2</v>
       </c>
       <c r="N8">
-        <v>7.7299567E-2</v>
+        <v>0.42860387700000002</v>
       </c>
       <c r="O8">
-        <v>0.42860387700000002</v>
+        <v>1.2829326999999999</v>
       </c>
       <c r="P8">
-        <v>1.2829326999999999</v>
+        <v>0.38032813500000001</v>
       </c>
       <c r="Q8">
-        <v>0.38032813500000001</v>
+        <v>0.29645213300000001</v>
       </c>
       <c r="R8">
-        <v>0.29645213300000001</v>
-      </c>
-      <c r="S8">
         <v>8</v>
       </c>
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
       <c r="T8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="U8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="V8" t="s">
-        <v>31</v>
-      </c>
-      <c r="W8" t="s">
-        <v>30</v>
-      </c>
-      <c r="X8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="1">
-        <v>42164</v>
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <v>2015</v>
       </c>
       <c r="F9">
-        <v>2015</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H9">
-        <v>161</v>
+        <v>23.1</v>
       </c>
       <c r="I9">
-        <v>23.1</v>
+        <v>654</v>
       </c>
       <c r="J9">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.77713375</v>
       </c>
       <c r="L9">
-        <v>2.77713375</v>
+        <v>0.288209987</v>
       </c>
       <c r="M9">
-        <v>0.288209987</v>
+        <v>0.103779657</v>
       </c>
       <c r="N9">
-        <v>0.103779657</v>
+        <v>0.79069508300000002</v>
       </c>
       <c r="O9">
-        <v>0.79069508300000002</v>
+        <v>2.1958660000000001</v>
       </c>
       <c r="P9">
-        <v>2.1958660000000001</v>
+        <v>0.51851967600000004</v>
       </c>
       <c r="Q9">
-        <v>0.51851967600000004</v>
+        <v>0.23613448000000001</v>
       </c>
       <c r="R9">
-        <v>0.23613448000000001</v>
-      </c>
-      <c r="S9">
         <v>4</v>
       </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
       <c r="T9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="U9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="V9" t="s">
-        <v>31</v>
-      </c>
-      <c r="W9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="1">
-        <v>42155</v>
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>2015</v>
       </c>
       <c r="F10">
-        <v>2015</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>151</v>
+        <v>19.2</v>
       </c>
       <c r="I10">
-        <v>19.2</v>
+        <v>674</v>
       </c>
       <c r="J10">
-        <v>674</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3.5190085</v>
       </c>
       <c r="L10">
-        <v>3.5190085</v>
+        <v>0.34337591099999998</v>
       </c>
       <c r="M10">
-        <v>0.34337591099999998</v>
+        <v>9.7577460000000005E-2</v>
       </c>
       <c r="N10">
-        <v>9.7577460000000005E-2</v>
+        <v>0.78549796100000002</v>
       </c>
       <c r="O10">
-        <v>0.78549796100000002</v>
+        <v>2.7641740000000001</v>
       </c>
       <c r="P10">
-        <v>2.7641740000000001</v>
+        <v>0.36515341899999998</v>
       </c>
       <c r="Q10">
-        <v>0.36515341899999998</v>
-      </c>
-      <c r="R10">
         <v>0.13210218300000001</v>
       </c>
+      <c r="R10" t="s">
+        <v>23</v>
+      </c>
       <c r="S10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="T10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="U10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="V10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W10" t="s">
-        <v>30</v>
-      </c>
-      <c r="X10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="1">
-        <v>42155</v>
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>2015</v>
       </c>
       <c r="F11">
-        <v>2015</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>151</v>
+        <v>19.2</v>
       </c>
       <c r="I11">
-        <v>19.2</v>
+        <v>674</v>
       </c>
       <c r="J11">
-        <v>674</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3.5683845000000001</v>
       </c>
       <c r="L11">
-        <v>3.5683845000000001</v>
+        <v>0.26986187</v>
       </c>
       <c r="M11">
-        <v>0.26986187</v>
+        <v>7.5625782000000003E-2</v>
       </c>
       <c r="N11">
-        <v>7.5625782000000003E-2</v>
+        <v>0.76044376700000005</v>
       </c>
       <c r="O11">
-        <v>0.76044376700000005</v>
+        <v>2.7135557499999998</v>
       </c>
       <c r="P11">
-        <v>2.7135557499999998</v>
+        <v>0.222634683</v>
       </c>
       <c r="Q11">
-        <v>0.222634683</v>
-      </c>
-      <c r="R11">
         <v>8.2045369000000007E-2</v>
       </c>
+      <c r="R11" t="s">
+        <v>23</v>
+      </c>
       <c r="S11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="T11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="U11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="V11" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" t="s">
-        <v>30</v>
-      </c>
-      <c r="X11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
